--- a/biology/Biochimie/Synthèse_organique/Synthèse_organique.xlsx
+++ b/biology/Biochimie/Synthèse_organique/Synthèse_organique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Synth%C3%A8se_organique</t>
+          <t>Synthèse_organique</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La synthèse organique est une branche de la synthèse chimique qui est concernée par la création de composés organiques à l'aide de réactions organiques. Les molécules organiques ont souvent un degré de complexité plus élevé que celles dites inorganiques. De nos jours, la synthèse organique occupe une place importante en chimie organique. À l'intérieur de celle-ci, on distingue deux principaux champs de recherche : la synthèse totale et la méthodologie.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Synth%C3%A8se_organique</t>
+          <t>Synthèse_organique</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Synthèse totale</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La synthèse totale[1] est la synthèse chimique de molécules organiques complexes à partir de précurseurs plus simples.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La synthèse totale est la synthèse chimique de molécules organiques complexes à partir de précurseurs plus simples.
 Ces derniers peuvent être des produits naturels ou des produits de la pétrochimie.
 On distingue la synthèse linéaire de la synthèse convergente.
 Dans le cas de la synthèse linéaire, les transformations chimiques sont réalisées de façon successives à partir du produit de départ jusqu'à obtenir le produit désiré.
@@ -530,7 +544,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Synth%C3%A8se_organique</t>
+          <t>Synthèse_organique</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,12 +562,14 @@
           <t>Méthodologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Chaque étape d'une synthèse met en œuvre une réaction chimique.
-Le développement d'une méthodologie efficace repose sur le choix précis des réactifs et des conditions réactionnelles qui permettent d'obtenir le produit désiré avec un rendement et une pureté les plus élevés possibles et nombre d'étapes le plus faible possible[2].
-De nombreuses méthodes sont déjà décrites dans la littérature pour effectuer certaines transformations chimiques[3], et sont couramment employées en synthèse organique (voir également Liste de réactions chimiques).
-Cependant, le désir d'améliorer constamment l'efficacité des synthèses (en minimisant l'utilisation de groupes protecteurs[4], en réduisant le nombre d'étapes, etc.) conduit à la recherche de nouveaux procédés.
+Le développement d'une méthodologie efficace repose sur le choix précis des réactifs et des conditions réactionnelles qui permettent d'obtenir le produit désiré avec un rendement et une pureté les plus élevés possibles et nombre d'étapes le plus faible possible.
+De nombreuses méthodes sont déjà décrites dans la littérature pour effectuer certaines transformations chimiques, et sont couramment employées en synthèse organique (voir également Liste de réactions chimiques).
+Cependant, le désir d'améliorer constamment l'efficacité des synthèses (en minimisant l'utilisation de groupes protecteurs, en réduisant le nombre d'étapes, etc.) conduit à la recherche de nouveaux procédés.
 Ces derniers doivent permettre l'obtention des produits désirés avec de bons rendements, et si possible être applicables à un grand nombre de substrats.
 La recherche d'une nouvelle méthodologie se déroule généralement en quatre étapes :
 Formulation d'une hypothèse de travail. Grâce à ses connaissances scientifiques, le chercheur imagine une nouvelle voie de synthèse. Il se base également sur les travaux de recherche publiés par ses pairs de façon à justifier ses hypothèses de départ.
@@ -571,7 +587,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Synth%C3%A8se_organique</t>
+          <t>Synthèse_organique</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -590,6 +606,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
